--- a/yield_prediction/results/graph_descriptors/WLlinear_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.529</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.292</v>
+        <v>16.439</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.661</v>
+        <v>16.673</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.859</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.101</v>
+        <v>6.783</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-4.153245195777426</v>
+        <v>3.895626733915687</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.77635663713175</v>
+        <v>5.105908708014736</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.55347354192193</v>
+        <v>13.60158725960622</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-8.7835491098323</v>
+        <v>-4.066292547976932</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.25529505116269</v>
+        <v>7.584229423902114</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.66495112971606</v>
+        <v>10.73155592836446</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.779628782537099</v>
+        <v>-0.1794993446949356</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.85741614905245</v>
+        <v>20.20718789450287</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.67897230756368</v>
+        <v>25.06920106861787</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.86656307037956</v>
+        <v>12.35004259132385</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.78794658625056</v>
+        <v>16.13677251413019</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.31049583747629</v>
+        <v>22.01737659097051</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.23016845759571</v>
+        <v>1.796641115294456</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.28352053213347</v>
+        <v>4.780889223853219</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22.75084601914524</v>
+        <v>15.80762769323955</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.215544370605798</v>
+        <v>9.061291500321424</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.89903699424688</v>
+        <v>21.67890743362298</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.27865631738933</v>
+        <v>31.6833642033914</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-8.470671817218898</v>
+        <v>-1.531216463465793</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.289475756181083</v>
+        <v>8.542607678095328</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.0434629169775</v>
+        <v>19.02071710632586</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.021713301697226</v>
+        <v>-0.7115764609216875</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18.85110202164968</v>
+        <v>24.43723579788618</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.32727802236305</v>
+        <v>38.4255283791889</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.29298601569888</v>
+        <v>23.92452954596261</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.16758004625274</v>
+        <v>38.3314229567078</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>42.40657764345838</v>
+        <v>51.59551923341463</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.8382928527029758</v>
+        <v>1.326053708645006</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.89390176814625</v>
+        <v>23.77142787068086</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>33.40668888826169</v>
+        <v>36.43232301934995</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.532895351113918</v>
+        <v>12.64114417273215</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24.15970698969002</v>
+        <v>25.30694607147753</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.81276520156948</v>
+        <v>35.36495212547716</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-9.834301672659926</v>
+        <v>-2.580486914413555</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>13.52371094996757</v>
+        <v>13.08292923422955</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.45493287174867</v>
+        <v>21.61593771874404</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>7.348348871736306</v>
+        <v>0.3397357096311637</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.1670419597879</v>
+        <v>31.41559990855131</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>37.90989799568559</v>
+        <v>46.41443035894065</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.13602589455178</v>
+        <v>37.92886403638909</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.56442136126506</v>
+        <v>49.99473482592225</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56.17996730713099</v>
+        <v>62.0737230368522</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.488752764085341</v>
+        <v>6.502490697043189</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.05075291524541</v>
+        <v>33.01350629954887</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43.40634247683064</v>
+        <v>47.54241106899119</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.46799080387024</v>
+        <v>3.289444652511683</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.08280981089188</v>
+        <v>26.34730661840021</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.90372735585246</v>
+        <v>37.20904335941788</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.9773236174956565</v>
+        <v>0.6482753307231519</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.24862730901173</v>
+        <v>30.8105547819189</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>39.97270415156009</v>
+        <v>37.73808928563201</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>18.08647991185623</v>
+        <v>5.67779280297999</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>45.95818648788313</v>
+        <v>54.51078289593227</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.84255579495515</v>
+        <v>61.79050114952746</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>39.51038577977449</v>
+        <v>43.5771744937224</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>47.06216325389494</v>
+        <v>47.57996550297314</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.70907879455987</v>
+        <v>51.27059115143169</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7.513163003139326</v>
+        <v>2.401880773971019</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.99016291541769</v>
+        <v>33.36207153690319</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.17632057393905</v>
+        <v>44.77044967814764</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.528226772271216</v>
+        <v>4.293518810187948</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.98684921911386</v>
+        <v>26.68581259096051</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.31351844354948</v>
+        <v>34.69407272580018</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-9.372360158515397</v>
+        <v>-3.728325643445487</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.72206494952206</v>
+        <v>18.18615961952816</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.28368064119878</v>
+        <v>28.1694294623756</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.079499451049301</v>
+        <v>-1.918532190025456</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.79355644434953</v>
+        <v>40.07162052071854</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.20698725078712</v>
+        <v>50.24324082556794</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.2431227507276</v>
+        <v>38.24436470753576</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>46.44807606828294</v>
+        <v>51.49203095702225</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>53.68987112107828</v>
+        <v>59.52543965051662</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.403109697430882</v>
+        <v>-0.01628745905812323</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.36503054049005</v>
+        <v>38.76881627131817</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>45.50225951619603</v>
+        <v>47.69367767900042</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2.1321734198594</v>
+        <v>5.244398837269044</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.65199844108819</v>
+        <v>30.44517232557046</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.55756584748486</v>
+        <v>42.18388019035915</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-11.95286960736631</v>
+        <v>-5.394663326943203</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.87291309919895</v>
+        <v>23.28115081659854</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>37.22248925274457</v>
+        <v>33.84502495593748</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.69199066074357</v>
+        <v>-0.5225106619606521</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.51433219644867</v>
+        <v>48.8140215416613</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>54.52134892608097</v>
+        <v>66.29267801551217</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>47.85072840461394</v>
+        <v>50.70084403250575</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>59.00428789242593</v>
+        <v>65.12695943212738</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>67.912633714517</v>
+        <v>75.20510646004261</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.788970141873378</v>
+        <v>-1.076877914531927</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>45.00908461031488</v>
+        <v>47.86715086048775</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>54.14320440719877</v>
+        <v>58.68471095686949</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-2.51816565318321</v>
+        <v>13.1082928365424</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>19.8692891997179</v>
+        <v>25.21316489349471</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.55385819753611</v>
+        <v>33.76974982563254</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-6.18394474778138</v>
+        <v>3.747564191305676</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>19.16783827158389</v>
+        <v>25.27767573905285</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.60510238839715</v>
+        <v>29.25354718507631</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.94703403554846</v>
+        <v>8.750061047614899</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.54274876702679</v>
+        <v>48.64044547879371</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>39.28019861516646</v>
+        <v>52.08993441955889</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.60070785185233</v>
+        <v>37.93196007940338</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37.96654047913121</v>
+        <v>43.83795443438613</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>39.01052377081758</v>
+        <v>44.86360883214807</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4.855797069157784</v>
+        <v>12.23200917684052</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22.00051485300988</v>
+        <v>26.96960996584582</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.46462255453249</v>
+        <v>35.15133578551857</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4.735278343942248</v>
+        <v>17.22311308871775</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.70857659283261</v>
+        <v>32.91962284351231</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.94515182963371</v>
+        <v>39.66700702795433</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-7.211990197142239</v>
+        <v>2.872451391138409</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>18.80320788015838</v>
+        <v>22.28623547030806</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.13038998272564</v>
+        <v>29.23107218525789</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.859038676442733</v>
+        <v>5.602166761164311</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.04604662726631</v>
+        <v>43.76719483448301</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.35924281851555</v>
+        <v>51.84875454162929</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.54060456399946</v>
+        <v>42.82364003252157</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.30709239503303</v>
+        <v>55.22917251536967</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>52.73517696046613</v>
+        <v>60.25649098515483</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>7.356116720283914</v>
+        <v>14.85749634134412</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.62046757836443</v>
+        <v>39.45462454632303</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.96445630409597</v>
+        <v>48.02411460130832</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>5.124028086462211</v>
+        <v>16.78548151435504</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.34078827709782</v>
+        <v>34.127930497473</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.6243018576987</v>
+        <v>44.85144297803411</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-10.48605901014301</v>
+        <v>0.1014408743468138</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>21.46688903878657</v>
+        <v>25.08666057349841</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.11204507305276</v>
+        <v>32.5312916353619</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>12.54347917815773</v>
+        <v>4.485808872543975</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.02272651123335</v>
+        <v>49.0338378866859</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>51.40190274324369</v>
+        <v>64.03046602865194</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>48.27971619015413</v>
+        <v>54.15221819992549</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>58.23171154221323</v>
+        <v>67.55901875583137</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>66.48303847463634</v>
+        <v>74.27396492973995</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>7.060267554761609</v>
+        <v>15.38720760575285</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>43.62358949338344</v>
+        <v>48.90348287790901</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>52.80149275536322</v>
+        <v>59.44090776429552</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3.25947260993383</v>
+        <v>4.845682594115553</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.74840028823744</v>
+        <v>6.940341454388875</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.94572449899128</v>
+        <v>13.93451472786177</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.430024687618598</v>
+        <v>-3.454542423531539</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.44020398398728</v>
+        <v>7.998955310595669</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.19329688142506</v>
+        <v>10.82902557234434</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11.58884946653355</v>
+        <v>2.285415500508485</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.18465319211187</v>
+        <v>21.15817189851331</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.42102312003968</v>
+        <v>25.22956401459289</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.10058769136641</v>
+        <v>16.24112171205773</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.6454877476686</v>
+        <v>19.16383766010035</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.13943482580477</v>
+        <v>25.46489159844491</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>17.18617240441947</v>
+        <v>23.25761050673424</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>18.69292947569908</v>
+        <v>27.11942882094608</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.5333130307199</v>
+        <v>35.2389710735966</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.336840551546778</v>
+        <v>7.851944409630855</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>19.35728440991668</v>
+        <v>19.87563581762044</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.29848720156898</v>
+        <v>28.92909561651503</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1.077480898359131</v>
+        <v>-2.004456765090374</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.40218252520118</v>
+        <v>7.526176860418982</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.65970231837979</v>
+        <v>17.56274237739056</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>7.219367184674276</v>
+        <v>-1.895476605350868</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18.34232900744789</v>
+        <v>19.50377481760014</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.37601009552851</v>
+        <v>33.15801159781907</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18.8633222159884</v>
+        <v>18.46403239842422</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.84724767893569</v>
+        <v>33.21041145280977</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>40.45848312215961</v>
+        <v>47.15243202837608</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.721981520520572</v>
+        <v>6.57546454176356</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21.83297599589292</v>
+        <v>27.75134018775715</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.90849069857489</v>
+        <v>36.12435024785309</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>8.780383475786092</v>
+        <v>14.57586785129369</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>23.96106085807691</v>
+        <v>25.93654771551505</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>33.87613133488141</v>
+        <v>35.15120511969185</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-3.856733193084196</v>
+        <v>-2.54144024856086</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>13.33402125451178</v>
+        <v>12.01494208547987</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.56194854688355</v>
+        <v>19.97301032159924</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>11.4765615783914</v>
+        <v>2.28539199147971</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.79845760518701</v>
+        <v>29.56548507637152</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.80576328188547</v>
+        <v>44.65104682863178</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>34.9332949464083</v>
+        <v>33.09304064316558</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.7136588370055</v>
+        <v>44.04488558879241</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55.38954443389127</v>
+        <v>58.56279543724822</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10.71570730552708</v>
+        <v>12.0171627675162</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>32.08616146785243</v>
+        <v>36.92237979102597</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.06303967763991</v>
+        <v>47.35733776125049</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.756929677116574</v>
+        <v>7.058420331821846</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24.78396739118497</v>
+        <v>19.53180598040984</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.44348240382963</v>
+        <v>26.70328953750401</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.96172993313769</v>
+        <v>1.462228777237634</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.50814218936909</v>
+        <v>24.87520652240335</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.78462468155956</v>
+        <v>28.14545495690707</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.16388142223812</v>
+        <v>10.0602710691264</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.36791864741472</v>
+        <v>46.63285247944762</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>41.07077891913958</v>
+        <v>49.96125142001526</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.40204555865945</v>
+        <v>28.64197504492954</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.40509794038135</v>
+        <v>33.60889987351352</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.30074203945954</v>
+        <v>37.40354008620194</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.07480065761113</v>
+        <v>11.16622709495051</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.65420215159081</v>
+        <v>17.74941841735412</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.68275593641747</v>
+        <v>26.20089150550199</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.5478156588522</v>
+        <v>17.67047742042773</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.14807266392555</v>
+        <v>36.36354668358921</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43.81570331194351</v>
+        <v>40.60374409921644</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.963374719485657</v>
+        <v>5.639485231895856</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.15890636795826</v>
+        <v>24.59242220128819</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.97422003020101</v>
+        <v>31.50509517334902</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.91969794055761</v>
+        <v>9.773059340041012</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.70228684403982</v>
+        <v>45.4829200180987</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>46.45054835063952</v>
+        <v>53.23883942129307</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>40.11904312600003</v>
+        <v>43.30976753982223</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>53.26091649377312</v>
+        <v>57.61415814337791</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>61.08278006745017</v>
+        <v>66.4607424805169</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15.91198962612399</v>
+        <v>22.12725177715258</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>39.47371919587129</v>
+        <v>43.59844054636704</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>48.9734883745507</v>
+        <v>50.93180076354965</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>10.68463541806319</v>
+        <v>17.32118133968518</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.09427589655608</v>
+        <v>34.58126621431002</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>43.25039199071175</v>
+        <v>41.37150951269912</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-1.923391965863736</v>
+        <v>-0.5052705203135446</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.58592451837894</v>
+        <v>21.37678645986742</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.95440409966141</v>
+        <v>27.98968895477771</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>15.45207294724931</v>
+        <v>6.668035158109895</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.07948221257616</v>
+        <v>46.33497540260418</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.32077331382839</v>
+        <v>58.5202840424996</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.99356585069017</v>
+        <v>48.77157723311356</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>59.62879186567785</v>
+        <v>61.60033327287559</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>68.87486592143117</v>
+        <v>70.62483692100795</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>11.98758569747087</v>
+        <v>17.9154256070477</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>42.38253607106886</v>
+        <v>45.45794654877857</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>52.17907722403387</v>
+        <v>56.66731155872572</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-5.265272479596614</v>
+        <v>3.076224719980059</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>17.81239950500667</v>
+        <v>18.28038470121147</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.53005387917036</v>
+        <v>28.10980670601889</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-4.533483416068867</v>
+        <v>3.021699111408978</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.5999085478689</v>
+        <v>28.40435781238001</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.07463888349356</v>
+        <v>33.20718207574789</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.07715940706684</v>
+        <v>8.75008867714298</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>36.36951203298734</v>
+        <v>53.95661140809146</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>42.14035503504501</v>
+        <v>58.87053342412808</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.23792835239927</v>
+        <v>31.52717238997954</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.89113161903496</v>
+        <v>35.48488918455536</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.645078185416</v>
+        <v>38.99319539528011</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-2.587321093784206</v>
+        <v>3.299495610604783</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>7.716373355000677</v>
+        <v>10.90259686802412</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.99005838968756</v>
+        <v>19.97648099260493</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>6.93708465938612</v>
+        <v>15.84570673207894</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.55834029651409</v>
+        <v>40.26570962843163</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>41.95924981352702</v>
+        <v>43.81580006028655</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-3.064473858112127</v>
+        <v>2.908360742178852</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.47893920995751</v>
+        <v>30.520381081433</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.59498442734827</v>
+        <v>36.13346913725841</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>15.61263709311581</v>
+        <v>5.298387253809606</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>45.50944522795292</v>
+        <v>54.70835857129626</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>50.96059684562997</v>
+        <v>59.43854181176759</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>41.64259589767381</v>
+        <v>47.42446544848164</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>53.09776849093283</v>
+        <v>60.48734677317992</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>59.35143575520511</v>
+        <v>67.18559874202369</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>13.03532907743567</v>
+        <v>15.48389271370156</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>44.20949126952433</v>
+        <v>51.22230182788849</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>50.18134353200481</v>
+        <v>57.00129750999027</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>5.938599855694122</v>
+        <v>16.76861531026589</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.66626696447485</v>
+        <v>38.96446795406733</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.8531714462944</v>
+        <v>46.7929123273175</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-8.723286693182519</v>
+        <v>-2.548201116615868</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.33785852066975</v>
+        <v>26.61946771689819</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.60879295190084</v>
+        <v>33.57617829453834</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.46086698662576</v>
+        <v>4.779093926530521</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>46.49298406627984</v>
+        <v>55.47912408650167</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>54.75604743907453</v>
+        <v>67.59448605881698</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49.77087864725348</v>
+        <v>52.92962698860308</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>61.83316285211252</v>
+        <v>68.05871738888146</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>69.59027353671644</v>
+        <v>74.6388809875466</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.838782068446822</v>
+        <v>9.78195935321196</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>48.16881907475955</v>
+        <v>52.61381414863499</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>55.67941251094097</v>
+        <v>61.63263164025602</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-5.008331462905357</v>
+        <v>5.676078893857451</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>4.561616457857347</v>
+        <v>0.022208459493676</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>10.39034897802584</v>
+        <v>8.717531629367361</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-9.782193549787086</v>
+        <v>-0.4449127653779357</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1.054913427666946</v>
+        <v>5.074656097726299</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>7.655429792757971</v>
+        <v>8.628423302501249</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.799940939861198</v>
+        <v>1.834298764791441</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>14.45891354900429</v>
+        <v>16.42694220363921</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.34186800440101</v>
+        <v>20.71886009149054</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>9.000454966657021</v>
+        <v>13.58079937762849</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>13.98942281287103</v>
+        <v>18.8028011002807</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.1989371197512</v>
+        <v>20.89116247183254</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.4370650065390773</v>
+        <v>3.864605921877075</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-1.16329947120426</v>
+        <v>0.4001066066413514</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.25987441892349</v>
+        <v>7.868921986844434</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>5.591582228458908</v>
+        <v>8.663571791193158</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>18.89027997884273</v>
+        <v>18.56964387408102</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.29539115722573</v>
+        <v>30.22610473457721</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-8.986388602205036</v>
+        <v>-0.5052497191009451</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>6.073192847462344</v>
+        <v>10.84404336499425</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>17.85604724604786</v>
+        <v>22.4158183499451</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>8.107216121730609</v>
+        <v>0.4553687771446562</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>21.52962535235905</v>
+        <v>26.00895863781375</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>32.03153034695467</v>
+        <v>39.88490801623944</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>18.87241832587952</v>
+        <v>25.8315092827116</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.66459683086169</v>
+        <v>39.11780072705028</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>38.02238679176464</v>
+        <v>47.90406928657607</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>3.733306408028596</v>
+        <v>2.572680822434853</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.15095257549398</v>
+        <v>25.40710353398864</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>31.36204139714108</v>
+        <v>34.98200060719259</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>5.998035549755414</v>
+        <v>9.084669876870421</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.62791495922871</v>
+        <v>20.64035277840512</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.87826643202251</v>
+        <v>32.69444820378922</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-8.807415381575982</v>
+        <v>-2.824530117579254</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.2892507454708</v>
+        <v>14.3979414446396</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.02926390479804</v>
+        <v>24.70640987912494</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>13.01917922436546</v>
+        <v>0.7998736448986392</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.82236356953201</v>
+        <v>33.14495242511061</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>43.17737172826572</v>
+        <v>48.54236603040836</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>37.41008722154835</v>
+        <v>39.91668771424901</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>48.29930086557973</v>
+        <v>54.63701793835509</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>55.20999845763105</v>
+        <v>60.91592830073348</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>11.42824743311515</v>
+        <v>10.49468363618732</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.92107980855792</v>
+        <v>36.89794554792542</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.92330074595355</v>
+        <v>49.67327479716003</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-9.798618962899825</v>
+        <v>1.171378010526258</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>3.614753182920143</v>
+        <v>0.7765737868472726</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>8.384902739206538</v>
+        <v>8.435219845045909</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-12.20252618559957</v>
+        <v>-1.599396056414225</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>2.986913723187584</v>
+        <v>6.150090276838634</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.388679904986748</v>
+        <v>9.28338915358823</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-1.794134710997271</v>
+        <v>-1.648345730020093</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>11.74401567659697</v>
+        <v>15.53093761897654</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.55853967267269</v>
+        <v>19.92060176311081</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>3.782565296319625</v>
+        <v>4.648085500990817</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>7.045192768361773</v>
+        <v>11.076705739231</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>10.55369332900013</v>
+        <v>16.27501788908407</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-6.632594377289513</v>
+        <v>-0.3363702830180664</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-3.634499595724687</v>
+        <v>0.5089657216369829</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.614908543349166</v>
+        <v>4.107474829137663</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-8.707408085870039</v>
+        <v>-1.15793492330295</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>3.982210219200674</v>
+        <v>1.10905955610453</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>13.88912646993233</v>
+        <v>12.50209063553509</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-16.05952803710916</v>
+        <v>-2.344013445012582</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-1.689674385472639</v>
+        <v>-2.727401998444215</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>9.529018977835403</v>
+        <v>9.277881549455481</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-8.926774091092618</v>
+        <v>-6.98249636036827</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>3.880889716905621</v>
+        <v>5.272137016472161</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>13.879965312633</v>
+        <v>21.23053043371893</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>4.940115072486474</v>
+        <v>2.681856398434881</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>18.01674609541592</v>
+        <v>21.33858578937033</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.64579730753024</v>
+        <v>36.33974946401786</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-13.72914872551879</v>
+        <v>-6.894192649557063</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>2.329933741507253</v>
+        <v>2.054031320582432</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>12.40162929073427</v>
+        <v>9.130593868390543</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-8.830034406265721</v>
+        <v>1.014822947200699</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>8.179350898833128</v>
+        <v>3.492819636466381</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>19.23542963275631</v>
+        <v>20.60496640580952</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-19.44689298106986</v>
+        <v>-4.972748857086497</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-0.1852909641812683</v>
+        <v>-0.6772468563810889</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>12.33472575720062</v>
+        <v>14.25532622360522</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-5.887002863342987</v>
+        <v>-5.621673419476334</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>11.28061268906922</v>
+        <v>12.47440118904426</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22.43954088175207</v>
+        <v>35.90294955997547</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>18.98482565590599</v>
+        <v>14.17995679063952</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>31.10007568324753</v>
+        <v>33.02594103997262</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>41.55665686569503</v>
+        <v>49.68337083173844</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-11.99219121331359</v>
+        <v>-8.301718494781717</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>11.50145258329499</v>
+        <v>8.227204926758588</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.55146015350108</v>
+        <v>21.54614447691297</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4.500125368947444</v>
+        <v>5.929631054972226</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>33.78177831281527</v>
+        <v>18.76213890434289</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>42.28643165405116</v>
+        <v>34.95279734223435</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.6287559856003</v>
+        <v>3.398278382350236</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.78759948786023</v>
+        <v>34.78550463567176</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>48.41835597976277</v>
+        <v>41.28879469596308</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.35990800559144</v>
+        <v>9.470424298288034</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>55.91395428432077</v>
+        <v>56.84329289436404</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>64.49772238351736</v>
+        <v>66.1360891793239</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>48.37715979849492</v>
+        <v>43.27600353673358</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>57.37881786123433</v>
+        <v>48.05247015126285</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>57.70160404927292</v>
+        <v>50.28798550769042</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>19.70961641071021</v>
+        <v>20.34616668973242</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.468824505626</v>
+        <v>33.01358155835685</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>56.58494433293443</v>
+        <v>51.30392457883442</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>2.124631240236607</v>
+        <v>8.51909474838007</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.0730098792576</v>
+        <v>23.75222548527216</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>39.67191464135527</v>
+        <v>31.8148532004197</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-11.00201182165434</v>
+        <v>-4.434388127620295</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.91183868199108</v>
+        <v>19.34834306272534</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.5169162122124</v>
+        <v>24.28956357648805</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>10.25441885868215</v>
+        <v>-1.88834717908372</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.48139306561358</v>
+        <v>39.80748928059721</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>48.15098683606627</v>
+        <v>48.20160015732804</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.84735439107784</v>
+        <v>36.3676633483495</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>51.01190654752575</v>
+        <v>46.37982811320587</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>55.55811804974648</v>
+        <v>51.23625193628447</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>8.392294271840125</v>
+        <v>11.09134035902767</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>40.52035089228249</v>
+        <v>37.62899225183999</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>50.66425969874188</v>
+        <v>45.61189206599289</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.3162698373686261</v>
+        <v>10.64909571377322</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.60109679792627</v>
+        <v>26.24510280171299</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.58862093934001</v>
+        <v>39.29759097330894</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-12.75972268611867</v>
+        <v>-1.956076005508329</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.06476628199295</v>
+        <v>25.83137642056552</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.37474084576768</v>
+        <v>32.8245595206489</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.30636653277999</v>
+        <v>2.723401602415477</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.91012898406292</v>
+        <v>49.10173696701979</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>55.99056232747052</v>
+        <v>65.73314868300889</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>49.29449561024781</v>
+        <v>50.28071726432675</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>61.43643374916511</v>
+        <v>61.69102568319444</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>67.74316613951001</v>
+        <v>68.23687256116952</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>7.559095972089185</v>
+        <v>13.69431338378088</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>48.15555592078899</v>
+        <v>47.04734451319019</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>58.9554353555889</v>
+        <v>61.39246321678733</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-5.686775001500108</v>
+        <v>4.043415943589419</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.416818808091982</v>
+        <v>1.183514011836742</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.39696782006427</v>
+        <v>9.424472650887203</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-11.04948326932107</v>
+        <v>-3.506596835124842</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.65675024545321</v>
+        <v>-2.459949638966201</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>8.296321960294069</v>
+        <v>2.494580912324547</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.5282290414044581</v>
+        <v>-0.06953954953800334</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.74441684587323</v>
+        <v>10.51082133857888</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>17.77089382300723</v>
+        <v>15.90901248121108</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>7.426526531882576</v>
+        <v>7.601747655468412</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>10.78251792123764</v>
+        <v>9.701446744330589</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.80872582794139</v>
+        <v>14.24789056897671</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-9.91689517504628</v>
+        <v>-6.117781338856286</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.4753111064359103</v>
+        <v>-2.765566101852439</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.156104256063909</v>
+        <v>3.699270391848014</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-2.701305872930241</v>
+        <v>0.698627954635672</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.08376143036438</v>
+        <v>7.907804899675329</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>21.81951123621027</v>
+        <v>20.57426137205783</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-13.64391871959093</v>
+        <v>-5.487147985549893</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.8340223545907381</v>
+        <v>-1.552968772372942</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.12370555449835</v>
+        <v>12.48299956200688</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1.944451943421406</v>
+        <v>-5.226162401339014</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>10.95954877957858</v>
+        <v>11.29713651760778</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.80447070193252</v>
+        <v>26.37682555390036</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>7.908724189954803</v>
+        <v>6.932265447570806</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.45864419589206</v>
+        <v>18.08186669719385</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.19044180137073</v>
+        <v>30.24478078227998</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-11.56275802647627</v>
+        <v>-9.502246276891725</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>9.155651586950384</v>
+        <v>7.781519211323227</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.80076916487602</v>
+        <v>19.31324646472932</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-1.993411121353628</v>
+        <v>6.06546406305605</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.47900925724212</v>
+        <v>12.82745608435072</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.45337362346063</v>
+        <v>26.98962517781601</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-15.03351469684975</v>
+        <v>-4.882515329320437</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>5.884843211980094</v>
+        <v>3.24381271233292</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.31232574699003</v>
+        <v>16.32311765409926</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2.584535602011417</v>
+        <v>-0.5606494435575051</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.22879614958672</v>
+        <v>19.69548507910167</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.30524982453812</v>
+        <v>38.02526862757705</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.53712232466828</v>
+        <v>21.4519732808135</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.38035472744677</v>
+        <v>32.64464813383923</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>44.67489607739018</v>
+        <v>48.2820713747124</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-4.972144242482837</v>
+        <v>-0.03873095628846457</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.29916499598286</v>
+        <v>20.95341110931572</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.21747257313105</v>
+        <v>32.64808673281553</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-10.21376028730185</v>
+        <v>-4.651501331127736</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.563447131449209</v>
+        <v>-2.81888868469942</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.878548910884419</v>
+        <v>3.306761360060673</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-14.6751532770456</v>
+        <v>-7.147906948729354</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>4.323528124922618</v>
+        <v>-2.028900709387607</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>8.077583311257506</v>
+        <v>1.938084143672995</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-0.5371632166117379</v>
+        <v>-8.881197117263365</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.39611460866762</v>
+        <v>14.72559349565916</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.74205520825873</v>
+        <v>16.91830567285268</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.18591581578088</v>
+        <v>5.039106797041205</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.81564886101383</v>
+        <v>5.054345077445833</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.8773533607891</v>
+        <v>8.921508411717188</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-12.38294569029505</v>
+        <v>-11.09290693864704</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1.515031350244087</v>
+        <v>-8.761729048171741</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.896809148828666</v>
+        <v>-5.447994584667708</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>7.7938112559392</v>
+        <v>13.49165815192129</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.03439672809262</v>
+        <v>27.02328332046809</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.6788324393282</v>
+        <v>31.93986363132078</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-1.610317661784077</v>
+        <v>4.206691418482208</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.44273873218226</v>
+        <v>17.64249978370105</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.96696573986404</v>
+        <v>25.6974611546084</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.75209477344658</v>
+        <v>4.547230233287953</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.1902713420498</v>
+        <v>37.23408633759354</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>40.89651708857813</v>
+        <v>43.71636538194583</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.78206039860239</v>
+        <v>35.479137672588</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.50742503539553</v>
+        <v>45.50703720244788</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>53.14776790175899</v>
+        <v>51.99604922795828</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>9.755757018077347</v>
+        <v>11.4838196794186</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.14007422351107</v>
+        <v>34.10113817762961</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.2586040953471</v>
+        <v>40.48655755600605</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>8.99811837729408</v>
+        <v>15.93058975308978</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.64663540911029</v>
+        <v>31.07458994841777</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.50357737337756</v>
+        <v>40.64387649116365</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-7.588420623238552</v>
+        <v>0.4297274849316217</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>21.45622258571314</v>
+        <v>19.88162820646323</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.48591432015073</v>
+        <v>28.91323840672701</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>13.45212588464744</v>
+        <v>4.336921270099259</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>39.33923891040738</v>
+        <v>43.22070570876105</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>48.27857280668097</v>
+        <v>56.91217866462252</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.84272293544026</v>
+        <v>47.21375706023768</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>56.19426983546322</v>
+        <v>58.92805240523867</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>65.44756188973352</v>
+        <v>66.45316770813039</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>7.968284429367202</v>
+        <v>10.58184798329859</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>41.54020929110049</v>
+        <v>44.2247122551224</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.08046704218717</v>
+        <v>51.43942907000688</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>0.8670775464311919</v>
+        <v>8.528685433216001</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.56982727575303</v>
+        <v>7.465748962665863</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.5455557552397</v>
+        <v>14.82251906818458</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-2.884945814377627</v>
+        <v>2.477394480330439</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>8.10254729035962</v>
+        <v>6.753323427856321</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>13.73711314896382</v>
+        <v>12.45451614314372</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>8.87297884681082</v>
+        <v>6.652985936913284</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>18.66598865677354</v>
+        <v>21.37254279407331</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.68800397930232</v>
+        <v>26.02897497795256</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.07464565982027</v>
+        <v>15.08078891932975</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>17.39140198273024</v>
+        <v>19.56562100929336</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>19.66664473864647</v>
+        <v>23.03080377576751</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>4.195524235066451</v>
+        <v>7.504544434106677</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>7.661441520788042</v>
+        <v>8.063701762709609</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>16.54597159720026</v>
+        <v>15.15666903024843</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-2.795499170202994</v>
+        <v>2.28701603799184</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>6.330014534231566</v>
+        <v>2.699772652984535</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.03153456246921</v>
+        <v>13.8346833776295</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-13.56247164509443</v>
+        <v>-3.241007206827383</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-3.228646523163464</v>
+        <v>-4.315405211972479</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>7.757454055486079</v>
+        <v>9.218059218924889</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-2.765398968518884</v>
+        <v>-5.20056342384321</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>6.445005063486306</v>
+        <v>5.246394825143133</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.23677373304422</v>
+        <v>19.96135516421253</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>2.666324517969642</v>
+        <v>3.271909049571516</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>10.3510696548218</v>
+        <v>12.157491483337</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>18.09290150915217</v>
+        <v>23.54969174963</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-9.040470421618194</v>
+        <v>-5.333696118707373</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>3.650585838232942</v>
+        <v>3.40651463821469</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>11.97760731941001</v>
+        <v>13.98934641124567</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.640089438026877</v>
+        <v>13.23470634126719</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>19.90661372364698</v>
+        <v>18.62039567467572</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.50399439326598</v>
+        <v>28.8541359451666</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-9.964157095388938</v>
+        <v>-1.286048959170969</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>6.191401028834782</v>
+        <v>6.558972263784293</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>18.19198336725201</v>
+        <v>17.23125977860205</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>8.52651173487568</v>
+        <v>3.697495868680807</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>22.92575073214147</v>
+        <v>25.06323950857142</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.62171380989687</v>
+        <v>40.98835114213925</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.76540083446887</v>
+        <v>24.92360206583601</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>33.70794718603106</v>
+        <v>34.17984792616809</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.03183903432129</v>
+        <v>44.80656308349576</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>3.059782013052867</v>
+        <v>7.482254036973583</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.63225132930078</v>
+        <v>23.00755330109812</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.72911539988861</v>
+        <v>32.13659469494354</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-6.088944986386177</v>
+        <v>3.963127208091599</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-3.746110000039193</v>
+        <v>-0.8701276391788078</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1.449191579834144</v>
+        <v>1.074627732813195</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-8.961350038994736</v>
+        <v>0.5379240198562805</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-6.308299720669755</v>
+        <v>-2.923433578215331</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-3.70724579180942</v>
+        <v>-0.2695830229334</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1.143596985159768</v>
+        <v>1.574112327569321</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>1.221032284320813</v>
+        <v>6.676651861024382</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>3.539317847621572</v>
+        <v>6.518714633005638</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-4.437013833427448</v>
+        <v>1.253672066381352</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-2.825747867001621</v>
+        <v>-0.5201037156069255</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-0.8385807927397675</v>
+        <v>2.6782467002337</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-6.976776122897529</v>
+        <v>0.4159996124992844</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-11.19562394316094</v>
+        <v>-4.207640903141357</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-7.487615109782052</v>
+        <v>-1.060463006766955</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-6.99630489095845</v>
+        <v>1.05319051912609</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-3.572426129765791</v>
+        <v>-1.742936528480403</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>4.248958559649388</v>
+        <v>1.772211934389517</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-13.93113356104115</v>
+        <v>-0.9140863425022872</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-10.05389820719402</v>
+        <v>-7.245023833162776</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1.196882130119466</v>
+        <v>-0.1298862832725227</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-7.699225718464023</v>
+        <v>-5.613520475149237</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-4.243496236419737</v>
+        <v>-2.858441274726449</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>3.650647086628375</v>
+        <v>3.195686302424203</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-8.325960578473492</v>
+        <v>-5.113426293323904</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-2.346306277780103</v>
+        <v>0.2086390452009468</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.179671675624306</v>
+        <v>5.797181718800916</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-14.9989583070462</v>
+        <v>-7.483786817876059</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-8.652725534880162</v>
+        <v>-5.174810685492741</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-3.884525095194158</v>
+        <v>-2.219204302989905</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>4.183447049662192</v>
+        <v>14.89514437775285</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>12.11713959654455</v>
+        <v>15.22293125894882</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.35342903645529</v>
+        <v>19.84966932842619</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-10.32040040083146</v>
+        <v>1.940467848158686</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-1.336205756439542</v>
+        <v>2.963194793733527</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.123062942176787</v>
+        <v>9.46807832965388</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>4.805904070369003</v>
+        <v>5.370589961763212</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>12.81339999764396</v>
+        <v>16.85996649750073</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.13561025927257</v>
+        <v>26.05640017357642</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.79262338251858</v>
+        <v>17.07167503740574</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.56921579322093</v>
+        <v>21.62550986145561</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>31.09582155083532</v>
+        <v>29.79132577931655</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-1.266824982979371</v>
+        <v>6.764796694358783</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>10.89042532014031</v>
+        <v>14.47025659993157</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.54312570901471</v>
+        <v>18.56539523659081</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>7.329835381796002</v>
+        <v>17.33689768762386</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.14951659647437</v>
+        <v>21.99738763603649</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.19432776246843</v>
+        <v>31.89725157173281</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>0.5353250967031311</v>
+        <v>3.648342411972342</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>18.44969402453233</v>
+        <v>17.52122979397138</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.0300795890503</v>
+        <v>21.72300051627401</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>15.23408912833522</v>
+        <v>12.78214722190676</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.20093333721979</v>
+        <v>36.72038285592534</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.28337146383834</v>
+        <v>42.58100966018229</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.18252591151342</v>
+        <v>30.20791812111418</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.10212038462979</v>
+        <v>35.54059827775981</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>32.02174412789465</v>
+        <v>38.22721398101167</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>18.58961797843642</v>
+        <v>22.41921933236883</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.58160136351037</v>
+        <v>30.00031326604641</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.72452283329425</v>
+        <v>38.62851083241154</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>3.868151235548833</v>
+        <v>10.37987560508464</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>17.36125286174251</v>
+        <v>17.00057097170262</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.04491464380245</v>
+        <v>24.31010853841778</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-13.19003026664523</v>
+        <v>-4.554864176258135</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.089696121783565</v>
+        <v>0.008768280408922635</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>11.92316360430136</v>
+        <v>6.78569311427915</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-0.7571085318303048</v>
+        <v>-2.16474677197888</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>12.86151302169512</v>
+        <v>15.79178592070604</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.62595479237446</v>
+        <v>25.8780967538374</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.05700507682352</v>
+        <v>14.74688151661331</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.16582107762223</v>
+        <v>24.90109847144497</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.93656119461593</v>
+        <v>31.46138636125032</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-1.414142367855499</v>
+        <v>3.917686947649738</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.51859189100823</v>
+        <v>18.24845603773776</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.39964776713752</v>
+        <v>24.3928552995691</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>7.680148227463381</v>
+        <v>19.12158591039825</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.95723650815771</v>
+        <v>26.50691840036197</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.44679257272711</v>
+        <v>35.5082795014504</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-10.11526029495634</v>
+        <v>-1.171235544843565</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>10.58190154691325</v>
+        <v>9.713116032488088</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.19556172820653</v>
+        <v>15.90235768183065</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.367305622633324</v>
+        <v>5.080072481356506</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.81441699040282</v>
+        <v>30.17107016857663</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>35.38294737013411</v>
+        <v>43.08312097301712</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>34.91491762938194</v>
+        <v>35.8609037734011</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>44.74278266876197</v>
+        <v>45.59454015335871</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>51.16902281783099</v>
+        <v>51.00339318885881</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>6.867413500760563</v>
+        <v>14.72320409765951</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.84407960369688</v>
+        <v>32.98762403658441</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>40.07489969018982</v>
+        <v>41.52750668685341</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>8.137648203050961</v>
+        <v>12.77383493512292</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.3674319615513</v>
+        <v>28.1454464753476</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.25916391160364</v>
+        <v>38.19269138632355</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.790180710555994</v>
+        <v>5.212534795839993</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.96341536880152</v>
+        <v>26.90875799463293</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.63527293311481</v>
+        <v>33.79554155404939</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>19.56175921304325</v>
+        <v>13.18225507042665</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>41.99833611067942</v>
+        <v>49.14469256410267</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>47.94487604978359</v>
+        <v>56.78503101404112</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>39.21238167896628</v>
+        <v>46.2670732116726</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>43.94724125299245</v>
+        <v>47.5464982559092</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>47.9339107780208</v>
+        <v>53.85035815530794</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>11.98357402284404</v>
+        <v>9.555713575457702</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.59465683374682</v>
+        <v>33.23597035222424</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.74317571855192</v>
+        <v>44.57435739397557</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>4.548251243379074</v>
+        <v>8.586804823323719</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.39747677452529</v>
+        <v>23.58598542579522</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.3928508306006</v>
+        <v>31.3845817175795</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-5.752354295837376</v>
+        <v>-1.560136828803987</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.85752209523059</v>
+        <v>13.05219773439401</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.17638598270606</v>
+        <v>22.38817818711649</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>6.818727837025826</v>
+        <v>-0.5312341661408517</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>27.86190382864385</v>
+        <v>29.73444192152009</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>37.95026011073703</v>
+        <v>40.1198282776803</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.23210932785073</v>
+        <v>31.67996561993551</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>37.80922738980534</v>
+        <v>40.62172397373094</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.04197585427065</v>
+        <v>47.93847071927448</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>0.239277094142917</v>
+        <v>0.7116168323795478</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.28664908111828</v>
+        <v>27.63555851674089</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.19586494770169</v>
+        <v>37.83144908371693</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>2.041119636965126</v>
+        <v>7.054305608128281</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.379005049962</v>
+        <v>24.56939489495376</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.70423741275006</v>
+        <v>36.47689809583613</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-11.59695767139997</v>
+        <v>-5.271444785564924</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>18.22833334834584</v>
+        <v>16.40131025915971</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.9207321585657</v>
+        <v>26.76443324184669</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>7.180010565822222</v>
+        <v>-1.94428506285746</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.76290483998636</v>
+        <v>35.06166012773532</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.18418794423602</v>
+        <v>53.01522527301045</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.52348046105886</v>
+        <v>41.36564466842844</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.92542914110413</v>
+        <v>52.16045674174664</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>59.21551626938741</v>
+        <v>63.72464833437587</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-0.4528835486782405</v>
+        <v>-2.146034147392768</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.39340298930625</v>
+        <v>35.47763408316862</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>44.53781887668196</v>
+        <v>47.39772220182234</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>0.8145184452406902</v>
+        <v>7.550656661512397</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.58992085644412</v>
+        <v>19.89571503122838</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.91257407785132</v>
+        <v>31.90876700281572</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-0.8894884829081526</v>
+        <v>3.611104688146144</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.29884102838985</v>
+        <v>30.16179555977998</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>35.45867825101887</v>
+        <v>34.63334048361215</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>15.22041070789238</v>
+        <v>8.952993142147152</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.23558946757944</v>
+        <v>47.76211111269984</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>47.61705933432041</v>
+        <v>55.04779777316651</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.05057906705255</v>
+        <v>35.04566870382195</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.25403759958314</v>
+        <v>37.50622750728352</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.7636097669587</v>
+        <v>42.0752003270622</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>14.10183552344249</v>
+        <v>13.30710105385516</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.97826383407038</v>
+        <v>27.0706286042411</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>45.22153416376403</v>
+        <v>42.85870423170938</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2.879205282553073</v>
+        <v>7.679996133717664</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.17140757435736</v>
+        <v>24.82948687129316</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.30448072078372</v>
+        <v>31.85570420971222</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-9.453477592535839</v>
+        <v>-3.042003511582525</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>18.0552609224474</v>
+        <v>15.29374059603107</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.39764643387171</v>
+        <v>21.56177344572632</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>4.851347637143483</v>
+        <v>-2.316092032329855</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.36952876989652</v>
+        <v>33.13949089339893</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.58756256580013</v>
+        <v>43.26377699070017</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.94949586167731</v>
+        <v>30.58392300663137</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.09070940489217</v>
+        <v>42.53305660397994</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>52.03132878534182</v>
+        <v>52.09888146512461</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>3.729724202688299</v>
+        <v>3.110303384423844</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.24814972409575</v>
+        <v>30.55526853643011</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>43.97010947155071</v>
+        <v>40.90297483733956</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1.141947859324842</v>
+        <v>9.101025324367995</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.99047330739426</v>
+        <v>26.28226900408426</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.30667938073572</v>
+        <v>35.81850794966611</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-11.70339481564032</v>
+        <v>-3.601236670669124</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>20.96497067715745</v>
+        <v>19.85074246011483</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.51473778944571</v>
+        <v>26.04126161320292</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>7.329293354292691</v>
+        <v>-1.310829694575844</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.44618295747553</v>
+        <v>39.62671816448189</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>45.84905327909169</v>
+        <v>54.30280211168255</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.16436848920196</v>
+        <v>43.4799411264722</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.39598078551669</v>
+        <v>54.39183411317422</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>63.78091046680458</v>
+        <v>64.72125132175222</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>3.420701387336955</v>
+        <v>3.594229360907631</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>40.83096202636109</v>
+        <v>37.34750628179092</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>50.89757242884178</v>
+        <v>51.98382148565904</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>10.80672668936136</v>
+        <v>18.39187871459874</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.91186498236962</v>
+        <v>23.37983745494098</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.63576109368047</v>
+        <v>33.80379247228517</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.39212654623946</v>
+        <v>19.09352485950339</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34.89457046208046</v>
+        <v>39.90946354919818</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.2439587693647</v>
+        <v>43.2260220660454</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>23.23271898598257</v>
+        <v>19.67828283233027</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>41.50628079685896</v>
+        <v>47.48073895223996</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>46.27412107408895</v>
+        <v>54.35876366986641</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.6639044495773</v>
+        <v>35.69929506767087</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>36.91307502716165</v>
+        <v>40.12601256896019</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.52503855071956</v>
+        <v>44.15693654917922</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.42923116443466</v>
+        <v>24.73882542624085</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.63018522729684</v>
+        <v>28.28564926794051</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.58222400418856</v>
+        <v>41.99764786946318</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>14.30955748064608</v>
+        <v>18.44430247418652</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.81785910276582</v>
+        <v>28.8280226458457</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.01318720069098</v>
+        <v>36.17923142384423</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.8616974747433</v>
+        <v>23.88836907736938</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.55586720024949</v>
+        <v>34.89153597435993</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>40.9687508559484</v>
+        <v>41.68901340855537</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.24993177921803</v>
+        <v>10.28368369154331</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.91180230471966</v>
+        <v>35.63010863959533</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>42.19267018042225</v>
+        <v>46.9720595294383</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.89713479201541</v>
+        <v>32.73473919348447</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>46.33068502135857</v>
+        <v>46.32596242033722</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>54.09564079680622</v>
+        <v>54.47366938806482</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>12.37652553617118</v>
+        <v>15.03425892265421</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.19144489501282</v>
+        <v>32.36811115724714</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>43.90492147258602</v>
+        <v>42.19905624925555</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>11.95953204015931</v>
+        <v>19.32017265842623</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>32.47688426600815</v>
+        <v>29.00453072964989</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.26477258692096</v>
+        <v>37.23067564891282</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>7.395876502671115</v>
+        <v>21.98361648394725</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.62993616596341</v>
+        <v>37.61606488901214</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>40.58143084787815</v>
+        <v>42.51068745052153</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.14479401215701</v>
+        <v>11.99108800817833</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.85300943845561</v>
+        <v>42.74565795389133</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>47.72264731806536</v>
+        <v>56.30476280842759</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>46.79348044746366</v>
+        <v>46.75965988907315</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.74624433472302</v>
+        <v>57.12686422420174</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>65.59168180270353</v>
+        <v>65.4518092721232</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>12.79165778321046</v>
+        <v>15.83240151863411</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.10341343071092</v>
+        <v>38.1818661246961</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>50.28213672619157</v>
+        <v>52.84245125105624</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-0.76573540394849</v>
+        <v>4.431667336158924</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.96925118668788</v>
+        <v>19.46650849908222</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.80061171650303</v>
+        <v>30.28504872387665</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-7.351578430674842</v>
+        <v>-1.733671706960052</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.79098379174024</v>
+        <v>19.35632714453582</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.26206590647316</v>
+        <v>23.91849312500915</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>10.82458563042132</v>
+        <v>3.768863834758296</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.79897260031056</v>
+        <v>41.74464047274923</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>41.67527698657826</v>
+        <v>48.69524917103237</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>34.22252213587307</v>
+        <v>40.4845978109843</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.56170498575013</v>
+        <v>41.9063104984843</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>41.12871022796088</v>
+        <v>45.58352039202398</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3.120573325660708</v>
+        <v>0.1800276367370977</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.46734283116964</v>
+        <v>26.51998269222436</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.78347020432002</v>
+        <v>35.57513674919781</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-0.507389501579592</v>
+        <v>5.467620747267077</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.25556218285897</v>
+        <v>21.35218678793146</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.11122637969981</v>
+        <v>27.61673008622047</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-13.21747920893376</v>
+        <v>-3.291521492591706</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>13.69193050118986</v>
+        <v>12.96333116197312</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.58776504334318</v>
+        <v>18.16441905424084</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1.272322203561238</v>
+        <v>-3.104649506080133</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.25632936146695</v>
+        <v>29.4794451619677</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>33.18507107794883</v>
+        <v>37.82881372265289</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.07972233811812</v>
+        <v>30.25629884852982</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.41882430611133</v>
+        <v>38.3450044087225</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.95164740241209</v>
+        <v>43.45589153182006</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-3.994587371228523</v>
+        <v>-3.504292543743826</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.38536135004967</v>
+        <v>26.11309421575772</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.64869669337487</v>
+        <v>34.40666533319278</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-1.755043081770824</v>
+        <v>6.512735412005913</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.34396912324669</v>
+        <v>22.29970678726432</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.40889024718951</v>
+        <v>32.48178550637237</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-17.09591005620243</v>
+        <v>-4.587781311599986</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>15.85610920398598</v>
+        <v>15.7984350948093</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>24.98890843221543</v>
+        <v>22.1588673866285</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>3.256098247957528</v>
+        <v>-2.792796378342956</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.62580476763652</v>
+        <v>34.19712725057048</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.76575002920219</v>
+        <v>48.65717182777264</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.58660289156548</v>
+        <v>42.69111842144704</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>49.5017986630373</v>
+        <v>53.88957340431894</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>57.29520207166799</v>
+        <v>61.31075088241409</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-5.04252215534394</v>
+        <v>-3.729890233365971</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.51840014240286</v>
+        <v>34.35975354465038</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>42.08411129305853</v>
+        <v>44.59750639118761</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-2.174476599985894</v>
+        <v>7.925703024578681</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>12.26888445279596</v>
+        <v>5.411127412383987</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.49421821164081</v>
+        <v>14.08253962003533</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-9.811766663623319</v>
+        <v>-1.299005878040276</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>6.54404322573065</v>
+        <v>6.07117382643267</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>11.32885442211249</v>
+        <v>9.240198371714047</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>4.418381382805663</v>
+        <v>4.687079830416275</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.99610217584394</v>
+        <v>18.30955886283794</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.26074221141275</v>
+        <v>24.4754318787956</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.40302181775071</v>
+        <v>13.38934098778338</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>14.78566614981387</v>
+        <v>16.26401462835728</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>15.93221799187204</v>
+        <v>19.93394074454318</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-2.243670160553272</v>
+        <v>2.365948260769517</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>4.837108665754862</v>
+        <v>3.427876457418822</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>13.93711253417606</v>
+        <v>10.50120677345943</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>2.573936714471685</v>
+        <v>4.491256943361332</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.39647663924869</v>
+        <v>14.11977968694966</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.56575305912207</v>
+        <v>23.7313127611762</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-11.61473272137123</v>
+        <v>-4.883477984495851</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.302873439037505</v>
+        <v>4.275718030839876</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.95107637860649</v>
+        <v>13.59197830895051</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>2.200988705095789</v>
+        <v>-4.190140126695923</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>18.17071821730504</v>
+        <v>16.72599081139743</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.44389712033638</v>
+        <v>30.01013230244979</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>19.05891061509077</v>
+        <v>17.23501042241205</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.64833485975439</v>
+        <v>28.65763161014026</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>33.98549208021765</v>
+        <v>36.47057661200711</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-5.488027220347035</v>
+        <v>-6.449826575713271</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>15.74459028055271</v>
+        <v>15.47275612259369</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.965150566882</v>
+        <v>25.55108139892038</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1.050303291429154</v>
+        <v>9.257507453779921</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.63215998188928</v>
+        <v>19.09567659126279</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.22493647658759</v>
+        <v>28.57757220007849</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-13.39835716276836</v>
+        <v>-4.407084717523418</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>11.04115825184758</v>
+        <v>10.1680083691635</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>23.03652677546182</v>
+        <v>17.26802905617044</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>4.419700015555449</v>
+        <v>-0.1999736777424594</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>26.20232248681761</v>
+        <v>25.91200946924137</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>36.8936385591934</v>
+        <v>39.89367914385002</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>33.02424233031496</v>
+        <v>32.60367951513684</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>41.18165415763446</v>
+        <v>41.82345727002813</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.89384550313114</v>
+        <v>46.07847484864095</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-3.649475731476077</v>
+        <v>-0.2284820021476612</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.20801615850473</v>
+        <v>25.75966402995623</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.28894196254553</v>
+        <v>38.1947707190035</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-2.789083909026612</v>
+        <v>7.422934871226328</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>13.14736012135067</v>
+        <v>8.423223691247514</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.07047806706481</v>
+        <v>18.99860861653562</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-2.638304468293837</v>
+        <v>1.22047019879269</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>15.40828786714528</v>
+        <v>16.10375068192864</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.98327701882297</v>
+        <v>20.10306438377074</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>6.985211356752039</v>
+        <v>6.861039532192891</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>23.06990457044644</v>
+        <v>28.2090874215226</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.03881994835491</v>
+        <v>35.69135441063924</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>17.55050635953693</v>
+        <v>21.36320481934488</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>19.84620989226569</v>
+        <v>25.65835421702722</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>24.77508473805231</v>
+        <v>30.93484765258696</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>7.215323341506501</v>
+        <v>9.229618925345269</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>13.81584475576172</v>
+        <v>12.3401102948759</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.72819117597211</v>
+        <v>25.34812010907432</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>0.5621844961631126</v>
+        <v>5.290994290795826</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>14.96143031930767</v>
+        <v>13.44748612222743</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.63258524025359</v>
+        <v>24.79609667004438</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-5.649308053145988</v>
+        <v>2.64488055068971</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>10.65654529862455</v>
+        <v>9.896619735341261</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.74067035435474</v>
+        <v>21.41940986905561</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>0.2544168100057558</v>
+        <v>-2.855130719580711</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>14.78761199033525</v>
+        <v>17.7767462730489</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.55803560629762</v>
+        <v>33.66653311558748</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.05655191588005</v>
+        <v>16.61402468918022</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.85086615701563</v>
+        <v>30.90358782096829</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>37.33873415158093</v>
+        <v>42.21576623931725</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-4.331722420818117</v>
+        <v>-2.886682804728672</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>14.79608958692911</v>
+        <v>14.65773553823715</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.9793037830962</v>
+        <v>27.31641048583934</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1.409403964747874</v>
+        <v>5.888299180681681</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>17.3292820603604</v>
+        <v>13.33979855631463</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.09490350637613</v>
+        <v>24.42127368943686</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-9.764076912893668</v>
+        <v>-0.8782688299341963</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>11.45580293936804</v>
+        <v>11.23681163579642</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>22.51449261961239</v>
+        <v>19.70309812116252</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2.476155113817558</v>
+        <v>-2.99331258618632</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>21.38915825097396</v>
+        <v>23.17180169084745</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.24562464340892</v>
+        <v>39.88960475063176</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.59257358863606</v>
+        <v>30.44151696967585</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>39.60305537480956</v>
+        <v>40.30253883866859</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>48.71725078132463</v>
+        <v>51.18746448179461</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-3.35355990144479</v>
+        <v>-1.760068551457422</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>22.40848245834392</v>
+        <v>19.37320217599602</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.60264560655482</v>
+        <v>36.83845590055081</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>9.160384210047397</v>
+        <v>14.93206573297175</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.0274957123827</v>
+        <v>22.84743011605678</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.15820364918481</v>
+        <v>34.7917279545384</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.259104618939809</v>
+        <v>5.54406898879002</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>32.88923526684457</v>
+        <v>34.90143679169343</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>39.83171168456342</v>
+        <v>40.75259638834585</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>24.14056508765875</v>
+        <v>15.80209687966078</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>45.20179343517039</v>
+        <v>53.64277349465847</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>51.38953244133472</v>
+        <v>61.14011003211778</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.12723248602488</v>
+        <v>36.9948561542618</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.37628965450578</v>
+        <v>44.0598209964854</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>47.20986423979951</v>
+        <v>47.96257550243551</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>23.05677875591699</v>
+        <v>26.76285264768682</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>33.24672576723408</v>
+        <v>30.63686960634669</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>48.71583915571534</v>
+        <v>52.2317208804081</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>11.79437299309656</v>
+        <v>20.40013835083217</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>30.88551130476273</v>
+        <v>29.37709553731776</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>38.20153650019181</v>
+        <v>35.63951302969653</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1.491465356832988</v>
+        <v>4.23145873559972</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.1104657858713</v>
+        <v>21.53883117573193</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.39520759941841</v>
+        <v>27.95736236171274</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>13.64930491474997</v>
+        <v>5.393151157875188</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>32.91803903498926</v>
+        <v>37.22117953117299</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>40.30212174427187</v>
+        <v>46.04667595874841</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>31.70843859796256</v>
+        <v>36.97469419029981</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.16851976285091</v>
+        <v>43.67591932471255</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>48.85205453522042</v>
+        <v>50.70880802077986</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>10.63608515597812</v>
+        <v>15.49225060367973</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.19471752974676</v>
+        <v>34.79851464371848</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>42.21875247016064</v>
+        <v>43.46494080312777</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>8.582043134087762</v>
+        <v>19.95788455743023</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.99254668454439</v>
+        <v>28.60129597640189</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>40.24789879383389</v>
+        <v>38.44228696717049</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-2.394380093167378</v>
+        <v>1.838541736190699</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>24.11591374258929</v>
+        <v>22.9662509546168</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>33.4643589677552</v>
+        <v>30.99192501326943</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>15.46172201608762</v>
+        <v>8.006906389144376</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>39.09000238211718</v>
+        <v>45.00512318143549</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>47.42215011820284</v>
+        <v>59.22333879818027</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>45.66477691460296</v>
+        <v>47.16386451506017</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>54.69629841413798</v>
+        <v>57.48369860732284</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>62.26047898629061</v>
+        <v>62.9745222678216</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>12.52865128970585</v>
+        <v>12.96347633959044</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>41.28964790621392</v>
+        <v>39.11884030005734</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>51.37941668200373</v>
+        <v>54.27046083728577</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-2.748871586565542</v>
+        <v>2.672160188930105</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>23.19258546405177</v>
+        <v>16.81221642294319</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.25750859801875</v>
+        <v>27.27629039831102</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-9.091036014038215</v>
+        <v>-1.535606051204265</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>20.28533547056102</v>
+        <v>19.30542970313731</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.02090626883754</v>
+        <v>21.8570232394637</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>9.619231659837027</v>
+        <v>1.264248008818914</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.80200978651697</v>
+        <v>38.44613914486746</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>40.91404949910791</v>
+        <v>45.37691325870333</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>32.6566487740973</v>
+        <v>38.93760665033911</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>38.27012047297821</v>
+        <v>42.46181773887507</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>39.23105590782684</v>
+        <v>41.70581115656173</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>1.859173416679132</v>
+        <v>-1.874879072785991</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>25.93855531777121</v>
+        <v>24.35006691295334</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.69866527346295</v>
+        <v>32.98179005376434</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-0.5198809786719281</v>
+        <v>6.831620424010564</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>23.6564740734169</v>
+        <v>23.03243944562664</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>32.01361885522242</v>
+        <v>29.97089458805076</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-12.45349270358995</v>
+        <v>-2.099323986235095</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>14.9240592114034</v>
+        <v>14.41284437578587</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>24.38777550080545</v>
+        <v>19.72927108856895</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>2.320738509652045</v>
+        <v>-1.729113184224758</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>26.72199473074453</v>
+        <v>31.27224116468522</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>35.15688206831936</v>
+        <v>41.15851916270078</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.58154159989709</v>
+        <v>33.39522085399199</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>40.30989258443125</v>
+        <v>42.18937818823447</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>45.91188284264686</v>
+        <v>45.27050358366638</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-3.916546446190795</v>
+        <v>-3.255319254293422</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.80000645027675</v>
+        <v>27.74889509905109</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>36.80570362143742</v>
+        <v>37.73869608930153</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-2.986514870178567</v>
+        <v>7.996485438483122</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>26.41692446651088</v>
+        <v>23.02993005943847</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.63622862591625</v>
+        <v>33.26052027001802</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-17.39061167182597</v>
+        <v>-4.15451493898728</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>15.90614398820914</v>
+        <v>16.00238645778471</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.21376814595069</v>
+        <v>21.58043014867446</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>2.909967497901626</v>
+        <v>-2.492996046112236</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>32.58693309052694</v>
+        <v>33.78967034621937</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>40.88269753973996</v>
+        <v>48.6619738313223</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>38.26610888823736</v>
+        <v>42.57180423696909</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>49.46389207888161</v>
+        <v>53.12885373895325</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>56.33446881452125</v>
+        <v>59.95763044783526</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-6.44311538204833</v>
+        <v>-4.040152078138597</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>34.43381306684534</v>
+        <v>32.99963172274077</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>41.4588297529729</v>
+        <v>44.92079041256569</v>
       </c>
     </row>
   </sheetData>
